--- a/biology/Zoologie/Dicronocephalus_shimomurai/Dicronocephalus_shimomurai.xlsx
+++ b/biology/Zoologie/Dicronocephalus_shimomurai/Dicronocephalus_shimomurai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicronocephalus shimomurai est une espèce de scarabées de la sous-famille des Cetoniinae (les cétoines), originaire de Taïwan.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicronocephalus shimomurai est reconnaissable par ses couleurs moins voyantes, son aspect robuste et, surtout pour les mâles, le prolongement de sa tête. Ses pattes antérieur sont plus longues que les autres. Sa première paire d'ailes (élytres) et, pour les mâles, le prolongement de la tête est rougeâtre. Le reste du corps est noir. Ses yeux sont jaune d'or. 
 </t>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dicronocephalus shimomurai (Kurosawa, 1986)[1].
-L'espèce a été initialement classée dans le genre Dicranocephalus sous le protonyme Dicranocephalus shimomurai Kurosawa, 1986[1].
-Dicronocephalus shimomurai a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dicronocephalus shimomurai (Kurosawa, 1986).
+L'espèce a été initialement classée dans le genre Dicranocephalus sous le protonyme Dicranocephalus shimomurai Kurosawa, 1986.
+Dicronocephalus shimomurai a pour synonyme :
 Dicranocephalus shimomurai Kurosawa, 1986</t>
         </is>
       </c>
@@ -577,11 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Habitat
-L'animal vit à Taïwan dans des forêts d'eucalyptus.
-Reproduction
-Dicronocephalus shimomurai est ovipare. La femelle creuse un trou dans le bois ou dans la terre pour y déposer ses œufs. 
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'animal vit à Taïwan dans des forêts d'eucalyptus.
 </t>
         </is>
       </c>
@@ -607,10 +625,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Bioécologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dicronocephalus shimomurai est ovipare. La femelle creuse un trou dans le bois ou dans la terre pour y déposer ses œufs. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dicronocephalus_shimomurai</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dicronocephalus_shimomurai</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se nourrit du nectar des fleurs[réf. nécessaire].
 Les chauves-souris, certains oiseaux et certains mammifères insectivores sont ses prédateurs[réf. nécessaire].
